--- a/excelFile1.xlsx
+++ b/excelFile1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ITEM</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>EGG</t>
+  </si>
+  <si>
+    <t>MILO</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,6 +422,14 @@
       </c>
       <c r="B5">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/excelFile1.xlsx
+++ b/excelFile1.xlsx
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ITEM</t>
-  </si>
-  <si>
-    <t>MILK</t>
   </si>
   <si>
     <t>SUGAR</t>
@@ -376,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,7 +386,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -397,15 +394,15 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -413,7 +410,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -421,14 +418,6 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
         <v>2</v>
       </c>
     </row>

--- a/excelFile1.xlsx
+++ b/excelFile1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ITEM</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>MILO</t>
+  </si>
+  <si>
+    <t>WATER</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -373,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,6 +425,23 @@
       </c>
       <c r="B5">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <f>SUM(B2:B6)</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/excelFile1.xlsx
+++ b/excelFile1.xlsx
@@ -39,7 +39,7 @@
     <t>WATER</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>SUBTOTAL</t>
   </si>
 </sst>
 </file>
@@ -382,10 +382,13 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
